--- a/downloaded_files/EPES402_Lecture-35388.xlsx
+++ b/downloaded_files/EPES402_Lecture-35388.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -138,6 +138,15 @@
     <x:t>Belal mohamed abd elmaksod</x:t>
   </x:si>
   <x:si>
+    <x:t>1220005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جلوريا ايمن يوسف يعقوب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gloria Ayman</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230148</x:t>
   </x:si>
   <x:si>
@@ -190,6 +199,15 @@
   </x:si>
   <x:si>
     <x:t>Steven Sameh Daniel Ghabrial Beshai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن حاتم مغاورى عوض عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abdelrahman Hatem Maghawry awad Omran </x:t>
   </x:si>
   <x:si>
     <x:t>1220065</x:t>
@@ -473,7 +491,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -773,7 +791,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1246,7 +1264,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45927.4622378472</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1278,7 +1296,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1310,7 +1328,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.7479954861</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1342,7 +1360,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.7488066319</x:v>
+        <x:v>45912.7479954861</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1374,7 +1392,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4157397338</x:v>
+        <x:v>45912.7488066319</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1406,7 +1424,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4157397338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1438,7 +1456,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4261113426</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1470,7 +1488,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45927.4168871875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1502,7 +1520,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4261113426</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1534,7 +1552,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.417458912</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1566,7 +1584,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1598,7 +1616,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.7491577199</x:v>
+        <x:v>45907.417458912</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1630,7 +1648,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4170444097</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1662,7 +1680,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45912.7491577199</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1694,7 +1712,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45907.4170444097</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1726,7 +1744,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1758,7 +1776,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1790,7 +1808,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1818,9 +1836,11 @@
       <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1843,16 +1863,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.7501361458</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1875,16 +1895,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
+      <x:c r="D34" s="2" t="s"/>
       <x:c r="E34" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1916,7 +1934,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45912.7501361458</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1948,7 +1966,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1980,7 +1998,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2012,7 +2030,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2029,6 +2047,70 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45906.6647042824</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES402_Lecture-35388.xlsx
+++ b/downloaded_files/EPES402_Lecture-35388.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -181,6 +181,15 @@
   </x:si>
   <x:si>
     <x:t>Sara Mohamed Mostafa Zohir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره احمد عبد الفتاح محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sara ahmed abdelfattah mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220172</x:t>
@@ -491,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -791,7 +800,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1424,7 +1433,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4157397338</x:v>
+        <x:v>45907.4332514236</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4157397338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4168871875</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4261113426</x:v>
+        <x:v>45927.4168871875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.4261113426</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.417458912</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.417458912</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1680,7 +1689,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.7491577199</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1712,7 +1721,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4170444097</x:v>
+        <x:v>45912.7491577199</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1744,7 +1753,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4170444097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1776,7 +1785,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1808,7 +1817,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1840,7 +1849,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1872,7 +1881,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1900,9 +1909,11 @@
       <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s"/>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1925,16 +1936,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45912.7501361458</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45912.7501361458</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2111,6 +2120,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES402_Lecture-35388.xlsx
+++ b/downloaded_files/EPES402_Lecture-35388.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed abdelnaby abdelwahab mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد شوقى التهامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Shawkey Eltohamyy</x:t>
   </x:si>
   <x:si>
     <x:t>4230140</x:t>
@@ -500,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -800,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -987,7 +996,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.7485189005</x:v>
+        <x:v>45931.3924794792</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6647458333</x:v>
+        <x:v>45912.7485189005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6647305556</x:v>
+        <x:v>45906.6647458333</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6651319444</x:v>
+        <x:v>45906.6647305556</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1111,9 +1120,11 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.5845413194</x:v>
+        <x:v>45906.6651319444</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1136,16 +1147,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45906.5845413194</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1177,7 +1186,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4194462153</x:v>
+        <x:v>45906.664603044</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4869801736</x:v>
+        <x:v>45907.4194462153</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6643803588</x:v>
+        <x:v>45907.4869801736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4622378472</x:v>
+        <x:v>45906.6643803588</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45927.4622378472</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.7479954861</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.7488066319</x:v>
+        <x:v>45912.7479954861</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4332514236</x:v>
+        <x:v>45912.7488066319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4157397338</x:v>
+        <x:v>45907.4332514236</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4157397338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4168871875</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4261113426</x:v>
+        <x:v>45927.4168871875</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.4261113426</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.417458912</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.417458912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.7491577199</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4170444097</x:v>
+        <x:v>45912.7491577199</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4170444097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1849,7 +1858,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1881,7 +1890,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1913,7 +1922,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1941,9 +1950,11 @@
       <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1966,16 +1977,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
+      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45912.7501361458</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2007,7 +2016,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45912.7501361458</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2152,6 +2161,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES402_Lecture-35388.xlsx
+++ b/downloaded_files/EPES402_Lecture-35388.xlsx
@@ -2199,11 +2199,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Power System Analysis (EPES402) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Sunday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Power System Analysis (EPES402) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Power System Analysis (EPES402) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Sunday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Power System Analysis (EPES402) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Power System Analysis (EPES402) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Power System Analysis (EPES402) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EPES402_Lecture-35388.xlsx
+++ b/downloaded_files/EPES402_Lecture-35388.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -145,6 +145,12 @@
   </x:si>
   <x:si>
     <x:t>Belal mohamed abd elmaksod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تيما غسان الراعى</x:t>
   </x:si>
   <x:si>
     <x:t>1220005</x:t>
@@ -509,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1310,11 +1316,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45927.4622378472</x:v>
+        <x:v>45935.7907480324</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1337,16 +1341,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45927.4622378472</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1369,16 +1373,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1401,16 +1405,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.7479954861</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1433,16 +1437,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.7488066319</x:v>
+        <x:v>45912.7479954861</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1465,16 +1469,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4332514236</x:v>
+        <x:v>45912.7488066319</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1497,16 +1501,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4157397338</x:v>
+        <x:v>45907.4332514236</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1529,16 +1533,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4157397338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1561,16 +1565,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4168871875</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1593,16 +1597,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4261113426</x:v>
+        <x:v>45927.4168871875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1625,16 +1629,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.4261113426</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1657,16 +1661,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1689,16 +1693,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.417458912</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1721,16 +1725,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.417458912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1753,16 +1757,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.7491577199</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1785,16 +1789,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4170444097</x:v>
+        <x:v>45912.7491577199</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1817,16 +1821,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4170444097</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1849,16 +1853,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1881,16 +1885,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1913,16 +1917,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1945,16 +1949,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1977,14 +1981,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2012,11 +2018,9 @@
       <x:c r="C37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
+      <x:c r="D37" s="2" t="s"/>
       <x:c r="E37" s="3">
-        <x:v>45912.7501361458</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2039,16 +2043,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45912.7501361458</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2071,16 +2075,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2103,16 +2107,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2135,16 +2139,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2167,16 +2171,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2197,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
